--- a/tun/0126/tun.xlsx
+++ b/tun/0126/tun.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18480" windowHeight="8076"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18480" windowHeight="8076" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>君敏</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +81,42 @@
   <si>
     <t>原来值y1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lasso</t>
+  </si>
+  <si>
+    <t>RamdomForest</t>
+  </si>
+  <si>
+    <t>ElasticNet</t>
+  </si>
+  <si>
+    <t>catboost</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>KRR</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>mse</t>
+  </si>
+  <si>
+    <t>ev</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>r2</t>
   </si>
 </sst>
 </file>
@@ -445,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -654,4 +691,442 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0.67969500000000005</v>
+      </c>
+      <c r="C2">
+        <v>0.93270399999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.88921099999999997</v>
+      </c>
+      <c r="E2">
+        <v>1.008054</v>
+      </c>
+      <c r="F2">
+        <v>1.5568690000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.95273099999999999</v>
+      </c>
+      <c r="H2">
+        <f>SUM(B2:G2)/6</f>
+        <v>1.0032106666666667</v>
+      </c>
+      <c r="I2">
+        <f>_xlfn.STDEV.P(B2:G2)</f>
+        <v>0.26824699604324093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0.98627299999999996</v>
+      </c>
+      <c r="C3">
+        <v>1.067096</v>
+      </c>
+      <c r="D3">
+        <v>1.067601</v>
+      </c>
+      <c r="E3">
+        <v>1.2187790000000001</v>
+      </c>
+      <c r="F3">
+        <v>1.698285</v>
+      </c>
+      <c r="G3">
+        <v>1.167886</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="0">SUM(B3:G3)/6</f>
+        <v>1.2009866666666666</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="1">_xlfn.STDEV.P(B3:G3)</f>
+        <v>0.23471197204990546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0.67961700000000003</v>
+      </c>
+      <c r="C4">
+        <v>0.932589</v>
+      </c>
+      <c r="D4">
+        <v>0.88933200000000001</v>
+      </c>
+      <c r="E4">
+        <v>1.0080579999999999</v>
+      </c>
+      <c r="F4">
+        <v>1.556888</v>
+      </c>
+      <c r="G4">
+        <v>0.95274899999999996</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1.0032055</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0.26826513544175529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0.64863199999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.94418199999999997</v>
+      </c>
+      <c r="D5">
+        <v>0.83673799999999998</v>
+      </c>
+      <c r="E5">
+        <v>1.0047950000000001</v>
+      </c>
+      <c r="F5">
+        <v>1.5613410000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.96486000000000005</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.99342466666666673</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.27968187911963288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.94491999999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.92982500000000001</v>
+      </c>
+      <c r="E6">
+        <v>1.02623</v>
+      </c>
+      <c r="F6">
+        <v>1.6029260000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.99101300000000003</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.0256523333333332</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.28418879415432496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>0.71649499999999999</v>
+      </c>
+      <c r="C7">
+        <v>1.002129</v>
+      </c>
+      <c r="D7">
+        <v>0.86943400000000004</v>
+      </c>
+      <c r="E7">
+        <v>1.3697649999999999</v>
+      </c>
+      <c r="F7">
+        <v>1.5504100000000001</v>
+      </c>
+      <c r="G7">
+        <v>1.868465</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.2294496666666668</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.40320651870791391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>0.78361999999999998</v>
+      </c>
+      <c r="C8">
+        <v>1.0587569999999999</v>
+      </c>
+      <c r="D8">
+        <v>1.0742860000000001</v>
+      </c>
+      <c r="E8">
+        <v>1.1366289999999999</v>
+      </c>
+      <c r="F8">
+        <v>1.656453</v>
+      </c>
+      <c r="G8">
+        <v>1.082471</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1.132036</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.26063689882030655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>0.63822199999999996</v>
+      </c>
+      <c r="C9">
+        <v>0.91413900000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.90833399999999997</v>
+      </c>
+      <c r="E9">
+        <v>0.99862799999999996</v>
+      </c>
+      <c r="F9">
+        <v>1.5711580000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.92964800000000003</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.99335483333333341</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.28212464324976244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.79781199999999997</v>
+      </c>
+      <c r="C13">
+        <v>7.2487999999999997E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.37529000000000001</v>
+      </c>
+      <c r="E13">
+        <v>7.0527000000000006E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1.0205040000000001</v>
+      </c>
+      <c r="C14">
+        <v>-4.0415E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.41079100000000002</v>
+      </c>
+      <c r="E14">
+        <v>-4.9350999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.79799600000000004</v>
+      </c>
+      <c r="C15">
+        <v>7.2391999999999998E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.37540699999999999</v>
+      </c>
+      <c r="E15">
+        <v>7.0428000000000004E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0.79064900000000005</v>
+      </c>
+      <c r="C16">
+        <v>7.6189999999999994E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.36124299999999998</v>
+      </c>
+      <c r="E16">
+        <v>7.4383000000000005E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>0.79156599999999999</v>
+      </c>
+      <c r="C17">
+        <v>7.6332999999999998E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.37477899999999997</v>
+      </c>
+      <c r="E17">
+        <v>7.3888999999999996E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1.1046469999999999</v>
+      </c>
+      <c r="C18">
+        <v>-9.0126999999999999E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.41091100000000003</v>
+      </c>
+      <c r="E18">
+        <v>-9.4646999999999995E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>0.93200099999999997</v>
+      </c>
+      <c r="C19">
+        <v>3.32E-3</v>
+      </c>
+      <c r="D19">
+        <v>0.41450999999999999</v>
+      </c>
+      <c r="E19">
+        <v>-1.709E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0.804732</v>
+      </c>
+      <c r="C20">
+        <v>7.0666999999999994E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.36755399999999999</v>
+      </c>
+      <c r="E20">
+        <v>6.6802E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>